--- a/Excel/MapConfig.xlsx
+++ b/Excel/MapConfig.xlsx
@@ -522,14 +522,14 @@
   <dimension ref="C3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
@@ -576,7 +576,7 @@
     </row>
     <row r="6" spans="3:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="2">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -585,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="2">
-        <v>10001</v>
+        <v>100001</v>
       </c>
     </row>
   </sheetData>
